--- a/data/MyeloidGeneKB01.xlsx
+++ b/data/MyeloidGeneKB01.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="175">
   <si>
     <t>Panel</t>
   </si>
@@ -552,6 +552,9 @@
   </si>
   <si>
     <t>There are no approved targeted therapies for WT1 mutations or expression. Various types of immunotherapy that specifically target the Wt1-expressing cells are currently in development (PMID 22291091). Wt1 vaccines are in clinical trials for Wt1-expressing hematologic and solid tumor cancers, including renal cell carcinoma, biliary tract cancers, and non-small cell lung cancer (PMIDs: 20395243, ; 22273718, 25550602, 23245331).</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -912,7 +915,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1972,43 +1975,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="2" max="2" width="8.5703125"/>
-    <col min="3" max="3" width="15.85546875"/>
-    <col min="4" max="1025" width="8.5703125"/>
+    <col min="3" max="3" width="8.5703125"/>
+    <col min="4" max="4" width="15.85546875"/>
+    <col min="5" max="1026" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>138</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>139</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B1048576">
       <formula1>List_GeneSymbol</formula1>
     </dataValidation>
   </dataValidations>
@@ -2023,191 +2029,195 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ9"/>
+  <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.5703125"/>
-    <col min="3" max="3" width="15.5703125"/>
-    <col min="4" max="4" width="8.5703125"/>
-    <col min="5" max="5" width="13.42578125"/>
-    <col min="6" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="3" max="3" width="8.5703125"/>
+    <col min="4" max="4" width="15.5703125"/>
+    <col min="5" max="5" width="8.5703125"/>
+    <col min="6" max="6" width="13.42578125"/>
+    <col min="7" max="1026" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>138</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>139</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1025" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AMI2"/>
       <c r="AMJ2"/>
-    </row>
-    <row r="3" spans="1:1024" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AMK2"/>
+    </row>
+    <row r="3" spans="1:1025" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>146</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>147</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1025" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>150</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>151</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>152</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1025" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>155</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>156</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>157</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:1024" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1025" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>160</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>161</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1025" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>164</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>161</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>165</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:1024" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1025" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>168</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>161</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:1024" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1025" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>171</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>172</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B1048576">
       <formula1>List_GeneSymbol</formula1>
     </dataValidation>
   </dataValidations>
@@ -2222,40 +2232,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="3" max="1026" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>138</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>139</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B1048576">
       <formula1>List_GeneSymbol</formula1>
     </dataValidation>
   </dataValidations>
@@ -2270,40 +2284,44 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="3" max="1026" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>138</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>139</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B1048576">
       <formula1>List_GeneSymbol</formula1>
     </dataValidation>
   </dataValidations>
